--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H2">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I2">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J2">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>0.03151466937</v>
+        <v>0.383054323575</v>
       </c>
       <c r="R2">
-        <v>0.12605867748</v>
+        <v>1.5322172943</v>
       </c>
       <c r="S2">
-        <v>0.0004562602604660189</v>
+        <v>0.008106310774762981</v>
       </c>
       <c r="T2">
-        <v>0.0002631478617130244</v>
+        <v>0.004412894005561279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H3">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I3">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J3">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>2.770914061575001</v>
+        <v>7.16214022425</v>
       </c>
       <c r="R3">
-        <v>16.62548436945</v>
+        <v>42.97284134549999</v>
       </c>
       <c r="S3">
-        <v>0.04011649167630675</v>
+        <v>0.1515673649845479</v>
       </c>
       <c r="T3">
-        <v>0.03470574774559406</v>
+        <v>0.1237648176149377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H4">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I4">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J4">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>0.02240652579</v>
+        <v>0.03979818534999999</v>
       </c>
       <c r="R4">
-        <v>0.13443915474</v>
+        <v>0.2387891121</v>
       </c>
       <c r="S4">
-        <v>0.0003243951942842157</v>
+        <v>0.000842221165154275</v>
       </c>
       <c r="T4">
-        <v>0.0002806421327555992</v>
+        <v>0.0006877295050117553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H5">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I5">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J5">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>1.2110382786825</v>
+        <v>1.868035362825</v>
       </c>
       <c r="R5">
-        <v>4.84415311473</v>
+        <v>7.472141451299999</v>
       </c>
       <c r="S5">
-        <v>0.01753306163484579</v>
+        <v>0.03953192604114198</v>
       </c>
       <c r="T5">
-        <v>0.01011218394032359</v>
+        <v>0.02152029502722191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H6">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I6">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J6">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>0.056910522585</v>
+        <v>0.26634420175</v>
       </c>
       <c r="R6">
-        <v>0.34146313551</v>
+        <v>1.5980652105</v>
       </c>
       <c r="S6">
-        <v>0.0008239340718772502</v>
+        <v>0.005636456083542771</v>
       </c>
       <c r="T6">
-        <v>0.0007128053043197863</v>
+        <v>0.004602540654087349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H7">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I7">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J7">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>0.01571451018</v>
+        <v>0.0156818056</v>
       </c>
       <c r="R7">
-        <v>0.09428706108</v>
+        <v>0.09409083359999999</v>
       </c>
       <c r="S7">
-        <v>0.000227510129446194</v>
+        <v>0.0003318630854146428</v>
       </c>
       <c r="T7">
-        <v>0.0001968245186004257</v>
+        <v>0.0002709882450200351</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.742642</v>
       </c>
       <c r="I8">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J8">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>0.1410608871426667</v>
+        <v>0.6633373649723334</v>
       </c>
       <c r="R8">
-        <v>0.846365322856</v>
+        <v>3.980024189834</v>
       </c>
       <c r="S8">
-        <v>0.002042238690612695</v>
+        <v>0.01403774477414371</v>
       </c>
       <c r="T8">
-        <v>0.001766790112270897</v>
+        <v>0.01146275071730689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.742642</v>
       </c>
       <c r="I9">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J9">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
         <v>12.40271922681</v>
@@ -1013,10 +1013,10 @@
         <v>111.62447304129</v>
       </c>
       <c r="S9">
-        <v>0.1795629787028044</v>
+        <v>0.2624700736081488</v>
       </c>
       <c r="T9">
-        <v>0.2330164172975632</v>
+        <v>0.3214863647540838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.742642</v>
       </c>
       <c r="I10">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J10">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>0.1002924818475556</v>
+        <v>0.06891874539977777</v>
       </c>
       <c r="R10">
-        <v>0.9026323366280001</v>
+        <v>0.620268708598</v>
       </c>
       <c r="S10">
-        <v>0.001452005520137531</v>
+        <v>0.001458479213087329</v>
       </c>
       <c r="T10">
-        <v>0.001884247669775641</v>
+        <v>0.001786417681220496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.742642</v>
       </c>
       <c r="I11">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J11">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>5.420654487884334</v>
+        <v>3.234887531582333</v>
       </c>
       <c r="R11">
-        <v>32.523926927306</v>
+        <v>19.409325189494</v>
       </c>
       <c r="S11">
-        <v>0.07847866653783651</v>
+        <v>0.06845766263039704</v>
       </c>
       <c r="T11">
-        <v>0.06789379356124935</v>
+        <v>0.05590022714097984</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.742642</v>
       </c>
       <c r="I12">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J12">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>0.2547337149357778</v>
+        <v>0.4612297788877777</v>
       </c>
       <c r="R12">
-        <v>2.292603434422</v>
+        <v>4.151068009989999</v>
       </c>
       <c r="S12">
-        <v>0.003687960986089653</v>
+        <v>0.009760683266397041</v>
       </c>
       <c r="T12">
-        <v>0.00478581644345588</v>
+        <v>0.0119553689976661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>0.742642</v>
       </c>
       <c r="I13">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J13">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>0.07033875941955556</v>
+        <v>0.02715627252977778</v>
       </c>
       <c r="R13">
-        <v>0.633048834776</v>
+        <v>0.244406452768</v>
       </c>
       <c r="S13">
-        <v>0.001018344197644459</v>
+        <v>0.0005746892048000494</v>
       </c>
       <c r="T13">
-        <v>0.001321491313104216</v>
+        <v>0.0007039078428057674</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H14">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I14">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J14">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>0.07150808877066665</v>
+        <v>0.2011291997458334</v>
       </c>
       <c r="R14">
-        <v>0.4290485326239999</v>
+        <v>1.206775198475</v>
       </c>
       <c r="S14">
-        <v>0.00103527340949957</v>
+        <v>0.004256356601859052</v>
       </c>
       <c r="T14">
-        <v>0.0008956400795893578</v>
+        <v>0.003475597788395456</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H15">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I15">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J15">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>6.28731865674</v>
+        <v>3.760603765875</v>
       </c>
       <c r="R15">
-        <v>56.58586791066001</v>
+        <v>33.845433892875</v>
       </c>
       <c r="S15">
-        <v>0.09102597949791066</v>
+        <v>0.07958302765627975</v>
       </c>
       <c r="T15">
-        <v>0.1181231664613354</v>
+        <v>0.09747723961680166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H16">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I16">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J16">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>0.05084133412355555</v>
+        <v>0.02089671536944444</v>
       </c>
       <c r="R16">
-        <v>0.457572007112</v>
+        <v>0.188070438325</v>
       </c>
       <c r="S16">
-        <v>0.00073606611820384</v>
+        <v>0.0004422225740086601</v>
       </c>
       <c r="T16">
-        <v>0.0009551829168631669</v>
+        <v>0.0005416561430256104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H17">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I17">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J17">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>2.747895962987333</v>
+        <v>0.9808437981208333</v>
       </c>
       <c r="R17">
-        <v>16.487375777924</v>
+        <v>5.885062788725</v>
       </c>
       <c r="S17">
-        <v>0.03978324230809224</v>
+        <v>0.02075691138233449</v>
       </c>
       <c r="T17">
-        <v>0.03441744565270536</v>
+        <v>0.0169493964069769</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H18">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I18">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J18">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>0.1291323305097777</v>
+        <v>0.1398485615694444</v>
       </c>
       <c r="R18">
-        <v>1.162190974588</v>
+        <v>1.258637054125</v>
       </c>
       <c r="S18">
-        <v>0.001869540500687006</v>
+        <v>0.002959517310508904</v>
       </c>
       <c r="T18">
-        <v>0.002426077093451418</v>
+        <v>0.003624963594907727</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H19">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I19">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J19">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>0.03565687381155555</v>
+        <v>0.008233999244444444</v>
       </c>
       <c r="R19">
-        <v>0.320911864304</v>
+        <v>0.07410599320000001</v>
       </c>
       <c r="S19">
-        <v>0.0005162298973109711</v>
+        <v>0.0001742503678634539</v>
       </c>
       <c r="T19">
-        <v>0.0006699044649531241</v>
+        <v>0.0002134304934326212</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H20">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I20">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J20">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>0.195782710969</v>
+        <v>0.2605868052095</v>
       </c>
       <c r="R20">
-        <v>0.783130843876</v>
+        <v>1.042347220838</v>
       </c>
       <c r="S20">
-        <v>0.002834485415433036</v>
+        <v>0.005514616326781222</v>
       </c>
       <c r="T20">
-        <v>0.001634787950557244</v>
+        <v>0.003002033601670638</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H21">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I21">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J21">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>17.2141125920775</v>
+        <v>4.872309551505</v>
       </c>
       <c r="R21">
-        <v>103.284675552465</v>
+        <v>29.23385730903</v>
       </c>
       <c r="S21">
-        <v>0.2492209390725605</v>
+        <v>0.1031092797667179</v>
       </c>
       <c r="T21">
-        <v>0.2156070653975154</v>
+        <v>0.08419557340748404</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H22">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I22">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J22">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>0.1391989968563334</v>
+        <v>0.02707418069766666</v>
       </c>
       <c r="R22">
-        <v>0.8351939811380001</v>
+        <v>0.162445084186</v>
       </c>
       <c r="S22">
-        <v>0.002015282782015721</v>
+        <v>0.0005729519527650072</v>
       </c>
       <c r="T22">
-        <v>0.001743469903425904</v>
+        <v>0.000467853313563331</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H23">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I23">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J23">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>7.523491822300251</v>
+        <v>1.2707998246145</v>
       </c>
       <c r="R23">
-        <v>30.093967289201</v>
+        <v>5.083199298457999</v>
       </c>
       <c r="S23">
-        <v>0.1089229367490799</v>
+        <v>0.02689304800085998</v>
       </c>
       <c r="T23">
-        <v>0.06282124563675016</v>
+        <v>0.01463997293118048</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H24">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I24">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J24">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>0.3535526983811667</v>
+        <v>0.1811904483216666</v>
       </c>
       <c r="R24">
-        <v>2.121316190287</v>
+        <v>1.08714268993</v>
       </c>
       <c r="S24">
-        <v>0.005118633622899878</v>
+        <v>0.003834406748907197</v>
       </c>
       <c r="T24">
-        <v>0.004428253815210844</v>
+        <v>0.003131047715900892</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H25">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I25">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J25">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>0.09762531119933333</v>
+        <v>0.01066812556266667</v>
       </c>
       <c r="R25">
-        <v>0.585751867196</v>
+        <v>0.064008753376</v>
       </c>
       <c r="S25">
-        <v>0.00141339099556874</v>
+        <v>0.0002257620809186273</v>
       </c>
       <c r="T25">
-        <v>0.001222758753529633</v>
+        <v>0.0001843497297199255</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.06202233333333333</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H26">
-        <v>0.186067</v>
+        <v>0.087491</v>
       </c>
       <c r="I26">
-        <v>0.06670628166623196</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J26">
-        <v>0.07783718976734225</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N26">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O26">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P26">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q26">
-        <v>0.03534243429266666</v>
+        <v>0.07814808400116667</v>
       </c>
       <c r="R26">
-        <v>0.212054605756</v>
+        <v>0.4688885040070001</v>
       </c>
       <c r="S26">
-        <v>0.0005116775329785174</v>
+        <v>0.001653793251707562</v>
       </c>
       <c r="T26">
-        <v>0.0004426646160867672</v>
+        <v>0.00135043200224051</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.06202233333333333</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H27">
-        <v>0.186067</v>
+        <v>0.087491</v>
       </c>
       <c r="I27">
-        <v>0.06670628166623196</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J27">
-        <v>0.07783718976734225</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
         <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P27">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q27">
-        <v>3.107468683935</v>
+        <v>1.461170130255</v>
       </c>
       <c r="R27">
-        <v>27.967218155415</v>
+        <v>13.150531172295</v>
       </c>
       <c r="S27">
-        <v>0.04498903207507076</v>
+        <v>0.03092172165060762</v>
       </c>
       <c r="T27">
-        <v>0.0583816505359321</v>
+        <v>0.03787445840485663</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.06202233333333333</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H28">
-        <v>0.186067</v>
+        <v>0.087491</v>
       </c>
       <c r="I28">
-        <v>0.06670628166623196</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J28">
-        <v>0.07783718976734225</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N28">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O28">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P28">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q28">
-        <v>0.02512801756422222</v>
+        <v>0.008119349503222222</v>
       </c>
       <c r="R28">
-        <v>0.226152158078</v>
+        <v>0.07307414552899999</v>
       </c>
       <c r="S28">
-        <v>0.0003637961643906889</v>
+        <v>0.0001718241155660783</v>
       </c>
       <c r="T28">
-        <v>0.0004720932982138691</v>
+        <v>0.0002104586992759128</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.06202233333333333</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H29">
-        <v>0.186067</v>
+        <v>0.087491</v>
       </c>
       <c r="I29">
-        <v>0.06670628166623196</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J29">
-        <v>0.07783718976734225</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N29">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O29">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P29">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q29">
-        <v>1.358130725971833</v>
+        <v>0.3811036071561666</v>
       </c>
       <c r="R29">
-        <v>8.148784355830999</v>
+        <v>2.286621642937</v>
       </c>
       <c r="S29">
-        <v>0.01966262350728295</v>
+        <v>0.008065029127353511</v>
       </c>
       <c r="T29">
-        <v>0.01701061142052426</v>
+        <v>0.006585631802121975</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.06202233333333333</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H30">
-        <v>0.186067</v>
+        <v>0.087491</v>
       </c>
       <c r="I30">
-        <v>0.06670628166623196</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J30">
-        <v>0.07783718976734225</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N30">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O30">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P30">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q30">
-        <v>0.06382286234411109</v>
+        <v>0.05433769512722222</v>
       </c>
       <c r="R30">
-        <v>0.5744057610969999</v>
+        <v>0.4890392561449999</v>
       </c>
       <c r="S30">
-        <v>0.0009240089259680213</v>
+        <v>0.001149910642894347</v>
       </c>
       <c r="T30">
-        <v>0.001199073723522916</v>
+        <v>0.00140846759134927</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.06202233333333333</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H31">
-        <v>0.186067</v>
+        <v>0.087491</v>
       </c>
       <c r="I31">
-        <v>0.06670628166623196</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J31">
-        <v>0.07783718976734225</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N31">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O31">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P31">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q31">
-        <v>0.01762319118622222</v>
+        <v>0.003199293118222222</v>
       </c>
       <c r="R31">
-        <v>0.158608720676</v>
+        <v>0.028793638064</v>
       </c>
       <c r="S31">
-        <v>0.0002551434605410299</v>
+        <v>6.770440295211032E-05</v>
       </c>
       <c r="T31">
-        <v>0.0003310961730623398</v>
+        <v>8.29277108955855E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.09583999999999999</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H32">
-        <v>0.28752</v>
+        <v>0.305734</v>
       </c>
       <c r="I32">
-        <v>0.1030778703621546</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J32">
-        <v>0.1202779042060454</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N32">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O32">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P32">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q32">
-        <v>0.05461289056</v>
+        <v>0.2730855323863334</v>
       </c>
       <c r="R32">
-        <v>0.32767734336</v>
+        <v>1.638513194318</v>
       </c>
       <c r="S32">
-        <v>0.0007906696205237004</v>
+        <v>0.00577911814949606</v>
       </c>
       <c r="T32">
-        <v>0.0006840274224729119</v>
+        <v>0.004719033703729528</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.09583999999999999</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H33">
-        <v>0.28752</v>
+        <v>0.305734</v>
       </c>
       <c r="I33">
-        <v>0.1030778703621546</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J33">
-        <v>0.1202779042060454</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
         <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P33">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q33">
-        <v>4.801815453600001</v>
+        <v>5.106003915870001</v>
       </c>
       <c r="R33">
-        <v>43.2163390824</v>
+        <v>45.95403524283</v>
       </c>
       <c r="S33">
-        <v>0.06951929413718901</v>
+        <v>0.1080547901741536</v>
       </c>
       <c r="T33">
-        <v>0.09021423552855261</v>
+        <v>0.1323508665571366</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.09583999999999999</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H34">
-        <v>0.28752</v>
+        <v>0.305734</v>
       </c>
       <c r="I34">
-        <v>0.1030778703621546</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J34">
-        <v>0.1202779042060454</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N34">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O34">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P34">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q34">
-        <v>0.03882906485333334</v>
+        <v>0.02837276063844444</v>
       </c>
       <c r="R34">
-        <v>0.34946158368</v>
+        <v>0.255354845746</v>
       </c>
       <c r="S34">
-        <v>0.0005621559609474592</v>
+        <v>0.0006004328919372208</v>
       </c>
       <c r="T34">
-        <v>0.0007295020885081806</v>
+        <v>0.0007354399877064148</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.09583999999999999</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H35">
-        <v>0.28752</v>
+        <v>0.305734</v>
       </c>
       <c r="I35">
-        <v>0.1030778703621546</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J35">
-        <v>0.1202779042060454</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N35">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O35">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P35">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q35">
-        <v>2.09865127256</v>
+        <v>1.331752182856333</v>
       </c>
       <c r="R35">
-        <v>12.59190763536</v>
+        <v>7.990513097137999</v>
       </c>
       <c r="S35">
-        <v>0.03038366561944887</v>
+        <v>0.02818294013352572</v>
       </c>
       <c r="T35">
-        <v>0.02628564439491762</v>
+        <v>0.0230132419722024</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.09583999999999999</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H36">
-        <v>0.28752</v>
+        <v>0.305734</v>
       </c>
       <c r="I36">
-        <v>0.1030778703621546</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J36">
-        <v>0.1202779042060454</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N36">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O36">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P36">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q36">
-        <v>0.09862226714666665</v>
+        <v>0.1898810264144444</v>
       </c>
       <c r="R36">
-        <v>0.88760040432</v>
+        <v>1.70892923773</v>
       </c>
       <c r="S36">
-        <v>0.00142782463518155</v>
+        <v>0.004018319375646183</v>
       </c>
       <c r="T36">
-        <v>0.001852868466666893</v>
+        <v>0.004921836881205812</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.09583999999999999</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H37">
-        <v>0.28752</v>
+        <v>0.305734</v>
       </c>
       <c r="I37">
-        <v>0.1030778703621546</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J37">
-        <v>0.1202779042060454</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N37">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O37">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P37">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q37">
-        <v>0.02723223317333333</v>
+        <v>0.01117980914844444</v>
       </c>
       <c r="R37">
-        <v>0.24509009856</v>
+        <v>0.100618282336</v>
       </c>
       <c r="S37">
-        <v>0.0003942603888639948</v>
+        <v>0.0002365904828172098</v>
       </c>
       <c r="T37">
-        <v>0.0005116263049271711</v>
+        <v>0.0002897877583174376</v>
       </c>
     </row>
   </sheetData>
